--- a/학습자료/단답형/객관식_한국사_대조_중앙 관제 역할.xlsx
+++ b/학습자료/단답형/객관식_한국사_대조_중앙 관제 역할.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,420 +448,1110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(통일신라)군사
-1. 영객부
-2. 병부
-3. 태상시</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(백제)
+1. 충부
+2. 선부
+3. 내신좌평</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 병부</t>
+          <t>3, 내신좌평</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(통일신라)관리 인사
-1. 병부
-2. 주자감
-3. 위화부</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(통일신라)
+1. 위화부
+2. 사선시
+3. 승부</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 위화부</t>
+          <t>1, 위화부</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(통일신라)공납과 부역 사무
-1. 사선시
-2. 품주
-3. 조부</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(발해)
+1. 공장부
+2. 충부
+3. 성균관</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 조부</t>
+          <t>2, 충부</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(통일신라)육상 교통
-1. 병부
-2. 종속시
-3. 승부</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(고려)
+1. 이부
+2. 정당성
+3. 조정좌평</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 승부</t>
+          <t>1, 이부</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(통일신라)의례
-1. 병부
-2. 예부
-3. 선부</t>
+          <t>문관 인사, 왕실 사무, 훈봉, 고과(조선)
+1. 선조성
+2. 예작부, 공장부
+3. 이조</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 예부</t>
+          <t>3, 이조</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(통일신라)외국 사신 접대
-1. 영객부
-2. 품주
-3. 대농시</t>
+          <t>호구, 조세, 어염, 광산, 조운(백제)
+1. 좌이방부, 우이방부
+2. 내두좌평
+3. 성균관</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 영객부</t>
+          <t>2, 내두좌평</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>호구, 조세, 어염, 광산, 조운(통일신라)
+1. 병조
+2. 형조
+3. 조부, 창부</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3, 조부, 창부</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>호구, 조세, 어염, 광산, 조운(발해)
+1. 인부
+2. 공조
+3. 사선시</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1, 인부</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>호구, 조세, 어염, 광산, 조운(고려)
+1. 사장시
+2. 호부
+3. 내법좌평</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, 호부</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>호구, 조세, 어염, 광산, 조운(조선)
+1. 병조
+2. 호조
+3. 전중시</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2, 호조</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>제사, 의식, 학교, 과거, 외교(백제)
+1. 내법좌평
+2. 대간
+3. 한림원</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 내법좌평</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>제사, 의식, 학교, 과거, 외교(통일신라)
+1. 6부
+2. 예부
+3. 병조</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 예부</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>제사, 의식, 학교, 과거, 외교(발해)
+1. 보문각
+2. 사천대, 서운관
+3. 의부</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 의부</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>제사, 의식, 학교, 과거, 외교(고려)
+1. 예부
+2. 사천대, 서운관
+3. 위화부</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, 예부</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>제사, 의식, 학교, 과거, 외교(조선)
+1. 삼사
+2. 통문관
+3. 예조</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3, 예조</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>무관 인사, 국방, 우역, 봉수(백제)
+1. 품주
+2. 주자감
+3. 위사좌평, 병관좌평</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 위사좌평, 병관좌평</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>무관 인사, 국방, 우역, 봉수(통일신라)
+1. 위사좌평, 병관좌평
+2. 병부
+3. 승부</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2, 병부</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>무관 인사, 국방, 우역, 봉수(발해)
+1. 지부
+2. 내두좌평
+3. 항백국</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 지부</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>무관 인사, 국방, 우역, 봉수(고려)
+1. 식목도감
+2. 병부
+3. 충부</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 병부</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>무관 인사, 국방, 우역, 봉수(조선)
+1. 병조
+2. 내두좌평
+3. 예부</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 병조</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>법률, 소송, 노비(백제)
+1. 조정좌평
+2. 사관, 춘추관
+3. 좌이방부, 우이방부</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1, 조정좌평</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>법률, 소송, 노비(통일신라)
+1. 좌이방부, 우이방부
+2. 내신좌평
+3. 사빈시</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 좌이방부, 우이방부</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>법률, 소송, 노비(발해)
+1. 내신좌평
+2. 선부
+3. 예부</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 예부</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>법률, 소송, 노비(고려)
+1. 전중시
+2. 조정좌평
+3. 형부</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3, 형부</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>법률, 소송, 노비(조선)
+1. 위사좌평, 병관좌평
+2. 형조
+3. 공부</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2, 형조</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>토목, 산림, 영선, 도량형, 파발(통일신라)
+1. 예작부, 공장부
+2. 사장시
+3. 승부</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1, 예작부, 공장부</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>토목, 산림, 영선, 도량형, 파발(발해)
+1. 조부
+2. 호부
+3. 신부</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 신부</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>토목, 산림, 영선, 도량형, 파발(고려)
+1. 공부
+2. 창부
+3. 중서문하성</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1, 공부</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>토목, 산림, 영선, 도량형, 파발(조선)
+1. 사관, 춘추관
+2. 공조
+3. 내두좌평</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2, 공조</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(통일신라)군사
+1. 항백국
+2. 식목도감
+3. 병부</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 병부</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(통일신라)관리 인사
+1. 위화부
+2. 집사부
+3. 대간</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1, 위화부</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(통일신라)공납과 부역 사무
+1. 조부
+2. 중대성
+3. 사정부</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 조부</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(통일신라)육상 교통
+1. 승부
+2. 중대성
+3. 중추원</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 승부</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(통일신라)의례
+1. 항백국
+2. 예부
+3. 승부</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 예부</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(통일신라)외국 사신 접대
+1. 병부
+2. 영객부
+3. 한림원</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 영객부</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>(통일신라)국가 기밀 사무, 중시(시중), 왕권강화
 1. 집사부
-2. 종속시
-3. 문적원</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+2. 사정부
+3. 예작부, 공장부</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>1, 집사부</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>(통일신라)재정, 회계
-1. 예작부
-2. 창부
-3. 승부</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2, 창부</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+1. 창부
+2. 첨의부
+3. 종속시</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 창부</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>(통일신라)집사부 + 창부
-1. 선부
-2. 위화부
-3. 품주</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 품주</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+1. 인부
+2. 품주
+3. 중서문하성</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 품주</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>(통일신라)형벌, 법률
 1. 좌이방부, 우이방부
+2. 중서문하성
+3. 이조</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1, 좌이방부, 우이방부</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(통일신라)감찰, 규찰
+1. 형부
 2. 사정부
-3. 사장시</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 좌이방부, 우이방부</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>(통일신라)감찰, 규찰
-1. 종속시
-2. 사빈시
-3. 사정부</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3, 사정부</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+3. 첨의부</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 사정부</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>(통일신라)해상 교통
+1. 예작부
+2. 선부
+3. 병부</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 선부</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(통일신라)수공업자 관리, 사묘 공사, 감
+1. 공장부
+2. 조부
+3. 6부</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 공장부</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(통일신라)토목, 건축
+1. 문적원
+2. 지부
+3. 예작부</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 예작부</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(발해) 최고 귀족 합의, 국가 중대사
+1. 정당성
+2. 6부
+3. 사관, 춘추관</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1, 정당성</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(발해) 장관 '경', 좌사정 + 우사정
+1. 예작부, 공장부
+2. 첨의부
+3. 6부</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3, 6부</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(발해) 신하 여론 국왕 전달, 왕의 조칙 논박  장관 '좌상'
+1. 선조성
+2. 신부
+3. 위사좌평, 병관좌평</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 선조성</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(발해) 국왕 명령 하달, 장관 '우상'
+1. 상서성
+2. 중대성
+3. 주자감</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2, 중대성</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(발해) 도서 출판 및 서적 관리
+1. 의부
+2. 문적원
+3. 공조</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2, 문적원</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(발해) 최고 교육 기관
+1. 주자감
+2. 사장시
+3. 선부</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1, 주자감</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(발해) 국왕 의복, 음식 등 궁정 생활 담당
+1. 식목도감
+2. 승부
+3. 전중시</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 전중시</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(발해) 왕족 사무 담당
+1. 호부
+2. 종속시
+3. 조부</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2, 종속시</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(발해) 궁중 제사 담당
+1. 주자감
+2. 태상시
+3. 종속시</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2, 태상시</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(발해) 외국 사절 접대 담당
+1. 대간
+2. 위사좌평, 병관좌평
+3. 사빈시</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3, 사빈시</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(발해) 전국의 창고, 국가 소유 토지 담당
 1. 대농시
+2. 어사대
+3. 대간</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1, 대농시</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(발해) 무역 업무 담당
+1. 사장시
+2. 문적원
+3. 성균관</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1, 사장시</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>(발해) 궁중의 주례 담당
+1. 도병마사
+2. 사선시
+3. 이조</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2, 사선시</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>(발해) 왕실 후궁 호위, 일상생활 시중
+1. 호부
+2. 중서문하성
+3. 항백국</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3, 항백국</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(고려) 최고 관서로서 장관으로 문하시중을 두었다 
+1. 도병마사
+2. 중서문하성
+3. 사관, 춘추관</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2, 중서문하성</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>(고려) 실제 정무를 나누어 담당하는 6부를 두고 정책의 집행을 담당하였다
+1. 식목도감
+2. 상서성
+3. 통문관</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2, 상서성</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(고려) 군사 기밀과 왕명의 출납을 담당하였다
+1. 중추원
+2. 위사좌평, 병관좌평
+3. 태상시</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1, 중추원</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(고려) 2품 이상인 재신과 3품 이하인 낭사로 구성되었다
+1. 중서문하성
+2. 문적원
+3. 호부</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1, 중서문하성</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(고려) 2품 이상인 추밀과 3품 이하인 승선으로 구성되었다
+1. 중추원
+2. 조부, 창부
+3. 조부</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1, 중추원</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(고려) 화폐와 곡식의 출납을 담당하였다
+1. 삼사
+2. 조부
+3. 내신좌평</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1, 삼사</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>(고려) 국방 문제를 담당하는 임시 회의 기구로, 고려 후기에 도평의사사(도당)로 개편되었다
+1. 보문각
+2. 도병마사
+3. 내신좌평</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2, 도병마사</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(고려) 국내 정치에 관한 법의 제정이나 각종 시행 규정을 다루던 임시 회의 기구였다
+1. 예작부
 2. 선부
-3. 공장부</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 선부</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>(통일신라)수공업자 관리, 사묘 공사, 감
-1. 6부
-2. 공장부
-3. 예작부</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, 공장부</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>(통일신라)토목, 건축
-1. 병부
-2. 조부
-3. 예작부</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 예작부</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>(발해) 최고 귀족 합의, 국가 중대사
-1. 창부
-2. 정당성
-3. 공장부</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 정당성</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>(발해) 장관 '경', 좌사정 + 우사정
+3. 식목도감</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3, 식목도감</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(고려) 정치의 잘잘못을 논하고 관리들의 비리를 감찰하였다
+1. 공장부
+2. 어사대
+3. 지부</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2, 어사대</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(고려) 어사대의 관원과 중서문하성의 낭사를 포함하며, 왕의 잘못을 논하는 간쟁, 봉박, 서경권을 갖고 있었다
+1. 이조
+2. 대간
+3. 좌이방부, 우이방부</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2, 대간</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>(고려) 경연과 장서를 관장하였다
+1. 보문각
+2. 내두좌평
+3. 이부</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1, 보문각</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>(고려) 국왕의 교서와 외교 문서를 관장하였다
+1. 집사부
+2. 한림원
+3. 성균관</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2, 한림원</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>(고려) 역사 편찬
 1. 좌이방부, 우이방부
-2. 6부
-3. 주자감</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2, 6부</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>(발해) 신하 여론 국왕 전달, 왕의 조칙 논박. 장관 '좌상'
-1. 승부
-2. 선조성
-3. 사장시</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2, 선조성</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(발해) 국왕 명령 하달, 장관 '우상'
-1. 사장시
-2. 중대성
-3. 좌이방부, 우이방부</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 중대성</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>(발해) 도서 출판 및 서적 관리
-1. 문적원
-2. 예부
-3. 집사부</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 문적원</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>(발해) 최고 교육 기관
-1. 항백국
-2. 공장부
-3. 주자감</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3, 주자감</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>(발해) 국왕 의복, 음식 등 궁정 생활 담당
+2. 사관, 춘추관
+3. 예조</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2, 사관, 춘추관</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>(고려) 통역관 양성
 1. 정당성
-2. 공장부
-3. 전중시</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3, 전중시</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>(발해) 왕족 사무 담당
-1. 종속시
-2. 주자감
-3. 문적원</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1, 종속시</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>(발해) 궁중 제사 담당
-1. 전중시
-2. 창부
-3. 태상시</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 태상시</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>(발해) 외국 사절 접대 담당
-1. 대농시
-2. 사빈시
-3. 사장시</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, 사빈시</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(발해) 전국의 창고, 국가 소유 토지 담당
-1. 주자감
-2. 영객부
-3. 대농시</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3, 대농시</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>(발해) 무역 업무 담당
-1. 예작부
-2. 선조성
-3. 사장시</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3, 사장시</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>(발해) 궁중의 주례 담당
-1. 문적원
-2. 항백국
-3. 사선시</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3, 사선시</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>(발해) 왕실 후궁 호위, 일상생활 시중
-1. 조부
-2. 항백국
-3. 전중시</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 항백국</t>
+2. 통문관
+3. 항백국</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2, 통문관</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>(고려) 천문 관측 담당
+1. 사천대, 서운관
+2. 대간
+3. 지부</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1, 사천대, 서운관</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>원간섭기 중서문하성과 상서성의 통합
+1. 첨의부
+2. 내두좌평
+3. 내신좌평</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1, 첨의부</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>원간섭기 국자감의 이름 변경
+1. 선조성
+2. 병부
+3. 성균관</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3, 성균관</t>
         </is>
       </c>
     </row>
